--- a/Oswaldo_Carreon/Bitacora.xlsx
+++ b/Oswaldo_Carreon/Bitacora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quinto Semestre\Programacion web\__Hospital Hidalgo_OSSWALDO_CARREON\Oswaldo_Carreon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DB8C01-28A7-47A1-90A8-EA2F7242933A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99E9B91-1FA9-41F5-B70E-B3858CAE1F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1335" windowWidth="23505" windowHeight="13035" xr2:uid="{277F7D05-DB40-422D-A93B-84EED8012C36}"/>
+    <workbookView xWindow="10935" yWindow="675" windowWidth="17550" windowHeight="14475" xr2:uid="{277F7D05-DB40-422D-A93B-84EED8012C36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Bitácora de progreso</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>variables.html</t>
+  </si>
+  <si>
+    <t>hola</t>
   </si>
 </sst>
 </file>
@@ -128,14 +131,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB4DE9D-6B43-4EE2-8ECB-0EB7768CD54A}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,27 +469,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>44062</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -497,7 +500,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>44063</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -508,7 +511,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>44064</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -519,7 +522,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>44065</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -530,7 +533,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>44066</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -541,7 +544,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>44067</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -552,7 +555,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>44068</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -563,7 +566,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>44069</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -574,7 +577,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>44070</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -585,7 +588,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>44071</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -593,6 +596,31 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Oswaldo_Carreon/Bitacora.xlsx
+++ b/Oswaldo_Carreon/Bitacora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quinto Semestre\Programacion web\__Hospital Hidalgo_OSSWALDO_CARREON\Oswaldo_Carreon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99E9B91-1FA9-41F5-B70E-B3858CAE1F05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE08A35C-8310-44A6-BB56-5A83E2A5A492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10935" yWindow="675" windowWidth="17550" windowHeight="14475" xr2:uid="{277F7D05-DB40-422D-A93B-84EED8012C36}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Bitácora de progreso</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>hola</t>
+  </si>
+  <si>
+    <t>hola hola hola hola</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB4DE9D-6B43-4EE2-8ECB-0EB7768CD54A}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -623,6 +626,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
